--- a/state_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
+++ b/state_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:U188"/>
+  <dimension ref="A1:U205"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -570,7 +570,7 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.58117444463073</v>
+        <v>1.57309106019467</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -581,7 +581,7 @@
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="inlineStr"/>
       <c r="L2" t="n">
-        <v>1.51084</v>
+        <v>1.45</v>
       </c>
       <c r="M2" t="n">
         <v>2.202</v>
@@ -1153,7 +1153,7 @@
         <v>0.0157</v>
       </c>
       <c r="G9" t="n">
-        <v>0.030693187503224</v>
+        <v>0.0307002257065445</v>
       </c>
       <c r="H9" t="n">
         <v>0.331350748000098</v>
@@ -1234,7 +1234,7 @@
         <v>0.0157</v>
       </c>
       <c r="G10" t="n">
-        <v>0.030693187503224</v>
+        <v>0.0307002257065445</v>
       </c>
       <c r="H10" t="n">
         <v>0.331350748000098</v>
@@ -1473,7 +1473,7 @@
         <v>1.07</v>
       </c>
       <c r="G13" t="n">
-        <v>1.09012068965517</v>
+        <v>1.09014482758621</v>
       </c>
       <c r="H13" t="n">
         <v>3.358</v>
@@ -1550,7 +1550,7 @@
         <v>1.07</v>
       </c>
       <c r="G14" t="n">
-        <v>1.09012068965517</v>
+        <v>1.09014482758621</v>
       </c>
       <c r="H14" t="n">
         <v>3.358</v>
@@ -1939,7 +1939,7 @@
         <v>1.575</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68821989917618</v>
+        <v>1.68013651474013</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
@@ -2522,7 +2522,7 @@
         <v>0.01546</v>
       </c>
       <c r="G26" t="n">
-        <v>0.0328098107244299</v>
+        <v>0.032811268169932</v>
       </c>
       <c r="H26" t="n">
         <v>0.331350748000098</v>
@@ -2603,7 +2603,7 @@
         <v>0.01546</v>
       </c>
       <c r="G27" t="n">
-        <v>0.0328098107244299</v>
+        <v>0.032811268169932</v>
       </c>
       <c r="H27" t="n">
         <v>0.331350748000098</v>
@@ -2842,7 +2842,7 @@
         <v>1.0575</v>
       </c>
       <c r="G30" t="n">
-        <v>1.05136206896552</v>
+        <v>1.05137413793103</v>
       </c>
       <c r="H30" t="n">
         <v>3.358</v>
@@ -2919,7 +2919,7 @@
         <v>1.0575</v>
       </c>
       <c r="G31" t="n">
-        <v>1.05136206896552</v>
+        <v>1.05137413793103</v>
       </c>
       <c r="H31" t="n">
         <v>3.358</v>
@@ -3308,7 +3308,7 @@
         <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.55789703723219</v>
+        <v>1.54942872972775</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -3319,7 +3319,7 @@
       <c r="J36" t="inlineStr"/>
       <c r="K36" t="inlineStr"/>
       <c r="L36" t="n">
-        <v>1.52168</v>
+        <v>1.5</v>
       </c>
       <c r="M36" t="n">
         <v>2</v>
@@ -3891,7 +3891,7 @@
         <v>0.01477</v>
       </c>
       <c r="G43" t="n">
-        <v>0.0321612472677658</v>
+        <v>0.0321618015402471</v>
       </c>
       <c r="H43" t="n">
         <v>0.331350748000098</v>
@@ -3972,7 +3972,7 @@
         <v>0.01477</v>
       </c>
       <c r="G44" t="n">
-        <v>0.0321612472677658</v>
+        <v>0.0321618015402471</v>
       </c>
       <c r="H44" t="n">
         <v>0.331350748000098</v>
@@ -4211,7 +4211,7 @@
         <v>1.12</v>
       </c>
       <c r="G47" t="n">
-        <v>1.01622413793103</v>
+        <v>1.01622586206897</v>
       </c>
       <c r="H47" t="n">
         <v>2.76</v>
@@ -4222,10 +4222,10 @@
       <c r="J47" t="inlineStr"/>
       <c r="K47" t="inlineStr"/>
       <c r="L47" t="n">
-        <v>0.1785</v>
+        <v>0.17855</v>
       </c>
       <c r="M47" t="n">
-        <v>1.84032</v>
+        <v>1.84028</v>
       </c>
       <c r="N47" t="n">
         <v>2.07602</v>
@@ -4288,7 +4288,7 @@
         <v>1.12</v>
       </c>
       <c r="G48" t="n">
-        <v>1.01622413793103</v>
+        <v>1.01622586206897</v>
       </c>
       <c r="H48" t="n">
         <v>2.76</v>
@@ -4299,10 +4299,10 @@
       <c r="J48" t="inlineStr"/>
       <c r="K48" t="inlineStr"/>
       <c r="L48" t="n">
-        <v>0.1785</v>
+        <v>0.17855</v>
       </c>
       <c r="M48" t="n">
-        <v>1.84032</v>
+        <v>1.84028</v>
       </c>
       <c r="N48" t="n">
         <v>2.07602</v>
@@ -4677,7 +4677,7 @@
         <v>1.5</v>
       </c>
       <c r="G53" t="n">
-        <v>1.43096919915702</v>
+        <v>1.42269782903641</v>
       </c>
       <c r="H53" t="n">
         <v>2.5</v>
@@ -4688,7 +4688,7 @@
       <c r="J53" t="inlineStr"/>
       <c r="K53" t="inlineStr"/>
       <c r="L53" t="n">
-        <v>1.52168</v>
+        <v>1.5</v>
       </c>
       <c r="M53" t="n">
         <v>2</v>
@@ -5260,7 +5260,7 @@
         <v>0.01442</v>
       </c>
       <c r="G60" t="n">
-        <v>0.0314796258772155</v>
+        <v>0.0314832398234988</v>
       </c>
       <c r="H60" t="n">
         <v>0.331350748000098</v>
@@ -5341,7 +5341,7 @@
         <v>0.01442</v>
       </c>
       <c r="G61" t="n">
-        <v>0.0314796258772155</v>
+        <v>0.0314832398234988</v>
       </c>
       <c r="H61" t="n">
         <v>0.331350748000098</v>
@@ -5422,7 +5422,7 @@
         <v>0.9154</v>
       </c>
       <c r="G62" t="n">
-        <v>0.93533482213105</v>
+        <v>0.935396062284428</v>
       </c>
       <c r="H62" t="n">
         <v>2.73</v>
@@ -5503,7 +5503,7 @@
         <v>0.9154</v>
       </c>
       <c r="G63" t="n">
-        <v>0.93533482213105</v>
+        <v>0.935396062284428</v>
       </c>
       <c r="H63" t="n">
         <v>2.73</v>
@@ -5577,10 +5577,10 @@
         </is>
       </c>
       <c r="F64" t="n">
-        <v>1.0735</v>
+        <v>1.0736</v>
       </c>
       <c r="G64" t="n">
-        <v>0.988963221219325</v>
+        <v>0.989059767602678</v>
       </c>
       <c r="H64" t="n">
         <v>2.76</v>
@@ -5594,10 +5594,10 @@
         <v>0.1445</v>
       </c>
       <c r="M64" t="n">
-        <v>1.79908</v>
+        <v>1.79902</v>
       </c>
       <c r="N64" t="n">
-        <v>2.10206</v>
+        <v>2.10249</v>
       </c>
       <c r="O64" t="n">
         <v>1874806.67707</v>
@@ -5654,10 +5654,10 @@
         </is>
       </c>
       <c r="F65" t="n">
-        <v>1.0735</v>
+        <v>1.0736</v>
       </c>
       <c r="G65" t="n">
-        <v>0.988963221219325</v>
+        <v>0.989059767602678</v>
       </c>
       <c r="H65" t="n">
         <v>2.76</v>
@@ -5671,10 +5671,10 @@
         <v>0.1445</v>
       </c>
       <c r="M65" t="n">
-        <v>1.79908</v>
+        <v>1.79902</v>
       </c>
       <c r="N65" t="n">
-        <v>2.10206</v>
+        <v>2.10249</v>
       </c>
       <c r="O65" t="n">
         <v>1874806.67707</v>
@@ -6629,7 +6629,7 @@
         <v>0.009950000000000001</v>
       </c>
       <c r="G77" t="n">
-        <v>0.0259476216151915</v>
+        <v>0.0259559789411411</v>
       </c>
       <c r="H77" t="n">
         <v>0.331350748000098</v>
@@ -6710,7 +6710,7 @@
         <v>0.009950000000000001</v>
       </c>
       <c r="G78" t="n">
-        <v>0.0259476216151915</v>
+        <v>0.0259559789411411</v>
       </c>
       <c r="H78" t="n">
         <v>0.331350748000098</v>
@@ -6791,7 +6791,7 @@
         <v>0.8922</v>
       </c>
       <c r="G79" t="n">
-        <v>0.891623343334016</v>
+        <v>0.891778012223577</v>
       </c>
       <c r="H79" t="n">
         <v>2.73</v>
@@ -6802,7 +6802,7 @@
       <c r="J79" t="inlineStr"/>
       <c r="K79" t="inlineStr"/>
       <c r="L79" t="n">
-        <v>0.04242</v>
+        <v>0.04387</v>
       </c>
       <c r="M79" t="n">
         <v>1.6615</v>
@@ -6872,7 +6872,7 @@
         <v>0.8922</v>
       </c>
       <c r="G80" t="n">
-        <v>0.891623343334016</v>
+        <v>0.891778012223577</v>
       </c>
       <c r="H80" t="n">
         <v>2.73</v>
@@ -6883,7 +6883,7 @@
       <c r="J80" t="inlineStr"/>
       <c r="K80" t="inlineStr"/>
       <c r="L80" t="n">
-        <v>0.04242</v>
+        <v>0.04387</v>
       </c>
       <c r="M80" t="n">
         <v>1.6615</v>
@@ -6946,27 +6946,27 @@
         </is>
       </c>
       <c r="F81" t="n">
-        <v>1.001</v>
+        <v>1.0009</v>
       </c>
       <c r="G81" t="n">
-        <v>0.9347666495320091</v>
+        <v>0.93492420939496</v>
       </c>
       <c r="H81" t="n">
         <v>2.76</v>
       </c>
       <c r="I81" t="n">
-        <v>2.3162</v>
+        <v>2.3164</v>
       </c>
       <c r="J81" t="inlineStr"/>
       <c r="K81" t="inlineStr"/>
       <c r="L81" t="n">
-        <v>0.0533</v>
+        <v>0.05507</v>
       </c>
       <c r="M81" t="n">
-        <v>1.66744</v>
+        <v>1.66748</v>
       </c>
       <c r="N81" t="n">
-        <v>2.05558</v>
+        <v>2.05562</v>
       </c>
       <c r="O81" t="n">
         <v>1874806.67707</v>
@@ -7023,27 +7023,27 @@
         </is>
       </c>
       <c r="F82" t="n">
-        <v>1.001</v>
+        <v>1.0009</v>
       </c>
       <c r="G82" t="n">
-        <v>0.9347666495320091</v>
+        <v>0.93492420939496</v>
       </c>
       <c r="H82" t="n">
         <v>2.76</v>
       </c>
       <c r="I82" t="n">
-        <v>2.3162</v>
+        <v>2.3164</v>
       </c>
       <c r="J82" t="inlineStr"/>
       <c r="K82" t="inlineStr"/>
       <c r="L82" t="n">
-        <v>0.0533</v>
+        <v>0.05507</v>
       </c>
       <c r="M82" t="n">
-        <v>1.66744</v>
+        <v>1.66748</v>
       </c>
       <c r="N82" t="n">
-        <v>2.05558</v>
+        <v>2.05562</v>
       </c>
       <c r="O82" t="n">
         <v>1874806.67707</v>
@@ -7998,7 +7998,7 @@
         <v>0.00733</v>
       </c>
       <c r="G94" t="n">
-        <v>0.0126331203963063</v>
+        <v>0.012641477722256</v>
       </c>
       <c r="H94" t="n">
         <v>0.0836517422385233</v>
@@ -8079,7 +8079,7 @@
         <v>0.00733</v>
       </c>
       <c r="G95" t="n">
-        <v>0.0126331203963063</v>
+        <v>0.012641477722256</v>
       </c>
       <c r="H95" t="n">
         <v>0.0836517422385233</v>
@@ -8160,7 +8160,7 @@
         <v>0.7979000000000001</v>
       </c>
       <c r="G96" t="n">
-        <v>0.965864722644361</v>
+        <v>0.966019391533922</v>
       </c>
       <c r="H96" t="n">
         <v>3.25</v>
@@ -8171,7 +8171,7 @@
       <c r="J96" t="inlineStr"/>
       <c r="K96" t="inlineStr"/>
       <c r="L96" t="n">
-        <v>0.01437</v>
+        <v>0.01708</v>
       </c>
       <c r="M96" t="n">
         <v>2.04454</v>
@@ -8241,7 +8241,7 @@
         <v>0.7979000000000001</v>
       </c>
       <c r="G97" t="n">
-        <v>0.965864722644361</v>
+        <v>0.966019391533922</v>
       </c>
       <c r="H97" t="n">
         <v>3.25</v>
@@ -8252,7 +8252,7 @@
       <c r="J97" t="inlineStr"/>
       <c r="K97" t="inlineStr"/>
       <c r="L97" t="n">
-        <v>0.01437</v>
+        <v>0.01708</v>
       </c>
       <c r="M97" t="n">
         <v>2.04454</v>
@@ -8315,10 +8315,10 @@
         </is>
       </c>
       <c r="F98" t="n">
-        <v>0.8315</v>
+        <v>0.83165</v>
       </c>
       <c r="G98" t="n">
-        <v>1.00159423573891</v>
+        <v>1.0017431749122</v>
       </c>
       <c r="H98" t="n">
         <v>3.32</v>
@@ -8329,10 +8329,10 @@
       <c r="J98" t="inlineStr"/>
       <c r="K98" t="inlineStr"/>
       <c r="L98" t="n">
-        <v>0.02785</v>
+        <v>0.03111</v>
       </c>
       <c r="M98" t="n">
-        <v>2.09744</v>
+        <v>2.09776</v>
       </c>
       <c r="N98" t="n">
         <v>2.4058</v>
@@ -8392,10 +8392,10 @@
         </is>
       </c>
       <c r="F99" t="n">
-        <v>0.8315</v>
+        <v>0.83165</v>
       </c>
       <c r="G99" t="n">
-        <v>1.00159423573891</v>
+        <v>1.0017431749122</v>
       </c>
       <c r="H99" t="n">
         <v>3.32</v>
@@ -8406,10 +8406,10 @@
       <c r="J99" t="inlineStr"/>
       <c r="K99" t="inlineStr"/>
       <c r="L99" t="n">
-        <v>0.02785</v>
+        <v>0.03111</v>
       </c>
       <c r="M99" t="n">
-        <v>2.09744</v>
+        <v>2.09776</v>
       </c>
       <c r="N99" t="n">
         <v>2.4058</v>
@@ -9367,7 +9367,7 @@
         <v>0.00743</v>
       </c>
       <c r="G111" t="n">
-        <v>0.0205059110731475</v>
+        <v>0.0205147227334061</v>
       </c>
       <c r="H111" t="n">
         <v>0.419192642663625</v>
@@ -9378,7 +9378,7 @@
       <c r="J111" t="inlineStr"/>
       <c r="K111" t="inlineStr"/>
       <c r="L111" t="n">
-        <v>0.00417</v>
+        <v>0.0042</v>
       </c>
       <c r="M111" t="n">
         <v>0.01999</v>
@@ -9448,7 +9448,7 @@
         <v>0.00743</v>
       </c>
       <c r="G112" t="n">
-        <v>0.0205059110731475</v>
+        <v>0.0205147227334061</v>
       </c>
       <c r="H112" t="n">
         <v>0.419192642663625</v>
@@ -9459,7 +9459,7 @@
       <c r="J112" t="inlineStr"/>
       <c r="K112" t="inlineStr"/>
       <c r="L112" t="n">
-        <v>0.00417</v>
+        <v>0.0042</v>
       </c>
       <c r="M112" t="n">
         <v>0.01999</v>
@@ -9529,7 +9529,7 @@
         <v>0.87985</v>
       </c>
       <c r="G113" t="n">
-        <v>1.06615610195471</v>
+        <v>1.06631077084427</v>
       </c>
       <c r="H113" t="n">
         <v>3.25</v>
@@ -9610,7 +9610,7 @@
         <v>0.87985</v>
       </c>
       <c r="G114" t="n">
-        <v>1.06615610195471</v>
+        <v>1.06631077084427</v>
       </c>
       <c r="H114" t="n">
         <v>3.25</v>
@@ -9684,10 +9684,10 @@
         </is>
       </c>
       <c r="F115" t="n">
-        <v>1.086</v>
+        <v>1.0859</v>
       </c>
       <c r="G115" t="n">
-        <v>1.12023216677339</v>
+        <v>1.12038627836048</v>
       </c>
       <c r="H115" t="n">
         <v>3.32</v>
@@ -9761,10 +9761,10 @@
         </is>
       </c>
       <c r="F116" t="n">
-        <v>1.086</v>
+        <v>1.0859</v>
       </c>
       <c r="G116" t="n">
-        <v>1.12023216677339</v>
+        <v>1.12038627836048</v>
       </c>
       <c r="H116" t="n">
         <v>3.32</v>
@@ -10736,7 +10736,7 @@
         <v>0.00957</v>
       </c>
       <c r="G128" t="n">
-        <v>0.022825611433395</v>
+        <v>0.0228344868872932</v>
       </c>
       <c r="H128" t="n">
         <v>0.419192642663625</v>
@@ -10747,7 +10747,7 @@
       <c r="J128" t="inlineStr"/>
       <c r="K128" t="inlineStr"/>
       <c r="L128" t="n">
-        <v>0.00485</v>
+        <v>0.00486</v>
       </c>
       <c r="M128" t="n">
         <v>0.02372</v>
@@ -10817,7 +10817,7 @@
         <v>0.00957</v>
       </c>
       <c r="G129" t="n">
-        <v>0.022825611433395</v>
+        <v>0.0228344868872932</v>
       </c>
       <c r="H129" t="n">
         <v>0.419192642663625</v>
@@ -10828,7 +10828,7 @@
       <c r="J129" t="inlineStr"/>
       <c r="K129" t="inlineStr"/>
       <c r="L129" t="n">
-        <v>0.00485</v>
+        <v>0.00486</v>
       </c>
       <c r="M129" t="n">
         <v>0.02372</v>
@@ -10898,7 +10898,7 @@
         <v>0.80415</v>
       </c>
       <c r="G130" t="n">
-        <v>1.11243713643746</v>
+        <v>1.11259180532703</v>
       </c>
       <c r="H130" t="n">
         <v>3.25</v>
@@ -10979,7 +10979,7 @@
         <v>0.80415</v>
       </c>
       <c r="G131" t="n">
-        <v>1.11243713643746</v>
+        <v>1.11259180532703</v>
       </c>
       <c r="H131" t="n">
         <v>3.25</v>
@@ -11053,10 +11053,10 @@
         </is>
       </c>
       <c r="F132" t="n">
-        <v>0.9765</v>
+        <v>0.97665</v>
       </c>
       <c r="G132" t="n">
-        <v>1.1715769943596</v>
+        <v>1.17173283008461</v>
       </c>
       <c r="H132" t="n">
         <v>3.32</v>
@@ -11130,10 +11130,10 @@
         </is>
       </c>
       <c r="F133" t="n">
-        <v>0.9765</v>
+        <v>0.97665</v>
       </c>
       <c r="G133" t="n">
-        <v>1.1715769943596</v>
+        <v>1.17173283008461</v>
       </c>
       <c r="H133" t="n">
         <v>3.32</v>
@@ -11765,13 +11765,13 @@
         <v>615</v>
       </c>
       <c r="G141" t="n">
-        <v>1881.66987968657</v>
+        <v>1869.6554119945</v>
       </c>
       <c r="H141" t="n">
         <v>24000</v>
       </c>
       <c r="I141" t="n">
-        <v>13383.14121</v>
+        <v>13104.40556</v>
       </c>
       <c r="J141" t="n">
         <v>55.1724137931034</v>
@@ -11850,13 +11850,13 @@
         <v>615</v>
       </c>
       <c r="G142" t="n">
-        <v>1881.66987968657</v>
+        <v>1869.6554119945</v>
       </c>
       <c r="H142" t="n">
         <v>24000</v>
       </c>
       <c r="I142" t="n">
-        <v>13383.14121</v>
+        <v>13104.40556</v>
       </c>
       <c r="J142" t="n">
         <v>55.1724137931034</v>
@@ -11935,13 +11935,13 @@
         <v>615</v>
       </c>
       <c r="G143" t="n">
-        <v>1881.66987968657</v>
+        <v>1869.6554119945</v>
       </c>
       <c r="H143" t="n">
         <v>24000</v>
       </c>
       <c r="I143" t="n">
-        <v>13383.14121</v>
+        <v>13104.40556</v>
       </c>
       <c r="J143" t="n">
         <v>55.1724137931034</v>
@@ -12020,13 +12020,13 @@
         <v>615</v>
       </c>
       <c r="G144" t="n">
-        <v>1881.66987968657</v>
+        <v>1869.6554119945</v>
       </c>
       <c r="H144" t="n">
         <v>24000</v>
       </c>
       <c r="I144" t="n">
-        <v>13383.14121</v>
+        <v>13104.40556</v>
       </c>
       <c r="J144" t="n">
         <v>55.1724137931034</v>
@@ -12105,7 +12105,7 @@
         <v>0.01154</v>
       </c>
       <c r="G145" t="n">
-        <v>0.0262263896226023</v>
+        <v>0.0262318851797665</v>
       </c>
       <c r="H145" t="n">
         <v>0.419192642663625</v>
@@ -12186,7 +12186,7 @@
         <v>0.01154</v>
       </c>
       <c r="G146" t="n">
-        <v>0.0262263896226023</v>
+        <v>0.0262318851797665</v>
       </c>
       <c r="H146" t="n">
         <v>0.419192642663625</v>
@@ -12267,7 +12267,7 @@
         <v>0.822</v>
       </c>
       <c r="G147" t="n">
-        <v>1.09492127858914</v>
+        <v>1.09507071237464</v>
       </c>
       <c r="H147" t="n">
         <v>3.25</v>
@@ -12348,7 +12348,7 @@
         <v>0.822</v>
       </c>
       <c r="G148" t="n">
-        <v>1.09492127858914</v>
+        <v>1.09507071237464</v>
       </c>
       <c r="H148" t="n">
         <v>3.25</v>
@@ -12425,7 +12425,7 @@
         <v>0.9885</v>
       </c>
       <c r="G149" t="n">
-        <v>1.15478618693337</v>
+        <v>1.15484720041297</v>
       </c>
       <c r="H149" t="n">
         <v>3.32</v>
@@ -12502,7 +12502,7 @@
         <v>0.9885</v>
       </c>
       <c r="G150" t="n">
-        <v>1.15478618693337</v>
+        <v>1.15484720041297</v>
       </c>
       <c r="H150" t="n">
         <v>3.32</v>
@@ -13134,7 +13134,7 @@
         <v>590</v>
       </c>
       <c r="G158" t="n">
-        <v>2064.37039020036</v>
+        <v>2052.55955755392</v>
       </c>
       <c r="H158" t="n">
         <v>24000</v>
@@ -13155,7 +13155,7 @@
         <v>1494</v>
       </c>
       <c r="N158" t="n">
-        <v>9273.12536</v>
+        <v>8729.590840000001</v>
       </c>
       <c r="O158" t="n">
         <v>1874806.67707</v>
@@ -13219,7 +13219,7 @@
         <v>590</v>
       </c>
       <c r="G159" t="n">
-        <v>2064.37039020036</v>
+        <v>2052.55955755392</v>
       </c>
       <c r="H159" t="n">
         <v>24000</v>
@@ -13240,7 +13240,7 @@
         <v>1494</v>
       </c>
       <c r="N159" t="n">
-        <v>9273.12536</v>
+        <v>8729.590840000001</v>
       </c>
       <c r="O159" t="n">
         <v>1874806.67707</v>
@@ -13304,7 +13304,7 @@
         <v>590</v>
       </c>
       <c r="G160" t="n">
-        <v>2064.37039020036</v>
+        <v>2052.55955755392</v>
       </c>
       <c r="H160" t="n">
         <v>24000</v>
@@ -13325,7 +13325,7 @@
         <v>1494</v>
       </c>
       <c r="N160" t="n">
-        <v>9273.12536</v>
+        <v>8729.590840000001</v>
       </c>
       <c r="O160" t="n">
         <v>1874806.67707</v>
@@ -13389,7 +13389,7 @@
         <v>590</v>
       </c>
       <c r="G161" t="n">
-        <v>2064.37039020036</v>
+        <v>2052.55955755392</v>
       </c>
       <c r="H161" t="n">
         <v>24000</v>
@@ -13410,7 +13410,7 @@
         <v>1494</v>
       </c>
       <c r="N161" t="n">
-        <v>9273.12536</v>
+        <v>8729.590840000001</v>
       </c>
       <c r="O161" t="n">
         <v>1874806.67707</v>
@@ -13474,7 +13474,7 @@
         <v>0.01245</v>
       </c>
       <c r="G162" t="n">
-        <v>0.0284655864567113</v>
+        <v>0.0284658087658674</v>
       </c>
       <c r="H162" t="n">
         <v>0.419192642663625</v>
@@ -13555,7 +13555,7 @@
         <v>0.01245</v>
       </c>
       <c r="G163" t="n">
-        <v>0.0284655864567113</v>
+        <v>0.0284658087658674</v>
       </c>
       <c r="H163" t="n">
         <v>0.419192642663625</v>
@@ -13636,7 +13636,7 @@
         <v>0.859</v>
       </c>
       <c r="G164" t="n">
-        <v>1.12186817761806</v>
+        <v>1.12198361358744</v>
       </c>
       <c r="H164" t="n">
         <v>3.25</v>
@@ -13717,7 +13717,7 @@
         <v>0.859</v>
       </c>
       <c r="G165" t="n">
-        <v>1.12186817761806</v>
+        <v>1.12198361358744</v>
       </c>
       <c r="H165" t="n">
         <v>3.25</v>
@@ -14503,13 +14503,13 @@
         <v>740</v>
       </c>
       <c r="G175" t="n">
-        <v>1921.62462748849</v>
+        <v>1909.81379484205</v>
       </c>
       <c r="H175" t="n">
         <v>24000</v>
       </c>
       <c r="I175" t="n">
-        <v>13181.03386</v>
+        <v>12867.45625</v>
       </c>
       <c r="J175" t="n">
         <v>61.0169491525424</v>
@@ -14588,13 +14588,13 @@
         <v>740</v>
       </c>
       <c r="G176" t="n">
-        <v>1921.62462748849</v>
+        <v>1909.81379484205</v>
       </c>
       <c r="H176" t="n">
         <v>24000</v>
       </c>
       <c r="I176" t="n">
-        <v>13181.03386</v>
+        <v>12867.45625</v>
       </c>
       <c r="J176" t="n">
         <v>61.0169491525424</v>
@@ -14673,13 +14673,13 @@
         <v>740</v>
       </c>
       <c r="G177" t="n">
-        <v>1921.62462748849</v>
+        <v>1909.81379484205</v>
       </c>
       <c r="H177" t="n">
         <v>24000</v>
       </c>
       <c r="I177" t="n">
-        <v>13181.03386</v>
+        <v>12867.45625</v>
       </c>
       <c r="J177" t="n">
         <v>61.0169491525424</v>
@@ -14758,13 +14758,13 @@
         <v>740</v>
       </c>
       <c r="G178" t="n">
-        <v>1921.62462748849</v>
+        <v>1909.81379484205</v>
       </c>
       <c r="H178" t="n">
         <v>24000</v>
       </c>
       <c r="I178" t="n">
-        <v>13181.03386</v>
+        <v>12867.45625</v>
       </c>
       <c r="J178" t="n">
         <v>61.0169491525424</v>
@@ -14843,7 +14843,7 @@
         <v>0.01595</v>
       </c>
       <c r="G179" t="n">
-        <v>0.0313138064901388</v>
+        <v>0.031314033074471</v>
       </c>
       <c r="H179" t="n">
         <v>0.419192642663625</v>
@@ -14924,7 +14924,7 @@
         <v>0.01595</v>
       </c>
       <c r="G180" t="n">
-        <v>0.0313138064901388</v>
+        <v>0.031314033074471</v>
       </c>
       <c r="H180" t="n">
         <v>0.419192642663625</v>
@@ -15005,7 +15005,7 @@
         <v>0.974</v>
       </c>
       <c r="G181" t="n">
-        <v>1.00937665219433</v>
+        <v>1.00949208816372</v>
       </c>
       <c r="H181" t="n">
         <v>2.91</v>
@@ -15086,7 +15086,7 @@
         <v>0.974</v>
       </c>
       <c r="G182" t="n">
-        <v>1.00937665219433</v>
+        <v>1.00949208816372</v>
       </c>
       <c r="H182" t="n">
         <v>2.91</v>
@@ -15599,6 +15599,1375 @@
         </is>
       </c>
     </row>
+    <row r="189">
+      <c r="A189" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B189" t="inlineStr">
+        <is>
+          <t>Visual Clarity (Sediment class 4)</t>
+        </is>
+      </c>
+      <c r="C189" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D189" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E189" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F189" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="G189" t="n">
+        <v>1.5645652173913</v>
+      </c>
+      <c r="H189" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="I189" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="J189" t="inlineStr"/>
+      <c r="K189" t="inlineStr"/>
+      <c r="L189" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="M189" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="N189" t="n">
+        <v>2.687</v>
+      </c>
+      <c r="O189" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P189" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q189" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R189" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S189" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T189" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U189" t="inlineStr">
+        <is>
+          <t>m</t>
+        </is>
+      </c>
+    </row>
+    <row r="190">
+      <c r="A190" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B190" t="inlineStr">
+        <is>
+          <t>DRP (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C190" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D190" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E190" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F190" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G190" t="n">
+        <v>0.06928813559322031</v>
+      </c>
+      <c r="H190" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="I190" t="n">
+        <v>0.32235</v>
+      </c>
+      <c r="J190" t="inlineStr"/>
+      <c r="K190" t="inlineStr"/>
+      <c r="L190" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M190" t="n">
+        <v>0.08676</v>
+      </c>
+      <c r="N190" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="O190" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P190" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q190" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R190" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S190" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T190" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U190" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="191">
+      <c r="A191" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B191" t="inlineStr">
+        <is>
+          <t>DRP (Median)</t>
+        </is>
+      </c>
+      <c r="C191" t="inlineStr">
+        <is>
+          <t>D</t>
+        </is>
+      </c>
+      <c r="D191" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E191" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F191" t="n">
+        <v>0.03</v>
+      </c>
+      <c r="G191" t="n">
+        <v>0.06928813559322031</v>
+      </c>
+      <c r="H191" t="n">
+        <v>0.417</v>
+      </c>
+      <c r="I191" t="n">
+        <v>0.32235</v>
+      </c>
+      <c r="J191" t="inlineStr"/>
+      <c r="K191" t="inlineStr"/>
+      <c r="L191" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="M191" t="n">
+        <v>0.08676</v>
+      </c>
+      <c r="N191" t="n">
+        <v>0.224</v>
+      </c>
+      <c r="O191" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P191" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q191" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R191" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S191" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T191" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U191" t="inlineStr">
+        <is>
+          <t>mg/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="192">
+      <c r="A192" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B192" t="inlineStr">
+        <is>
+          <t>E coli (&gt;260)</t>
+        </is>
+      </c>
+      <c r="C192" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D192" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E192" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F192" t="n">
+        <v>689</v>
+      </c>
+      <c r="G192" t="n">
+        <v>1264.72904907934</v>
+      </c>
+      <c r="H192" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I192" t="n">
+        <v>3786.75</v>
+      </c>
+      <c r="J192" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K192" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L192" t="n">
+        <v>1055</v>
+      </c>
+      <c r="M192" t="n">
+        <v>1554.42</v>
+      </c>
+      <c r="N192" t="n">
+        <v>2338.68</v>
+      </c>
+      <c r="O192" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P192" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q192" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R192" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S192" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T192" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U192" t="inlineStr">
+        <is>
+          <t>% exceedances over 260/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="193">
+      <c r="A193" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B193" t="inlineStr">
+        <is>
+          <t>E coli (&gt;540)</t>
+        </is>
+      </c>
+      <c r="C193" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D193" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E193" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F193" t="n">
+        <v>689</v>
+      </c>
+      <c r="G193" t="n">
+        <v>1264.72904907934</v>
+      </c>
+      <c r="H193" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I193" t="n">
+        <v>3786.75</v>
+      </c>
+      <c r="J193" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K193" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L193" t="n">
+        <v>1055</v>
+      </c>
+      <c r="M193" t="n">
+        <v>1554.42</v>
+      </c>
+      <c r="N193" t="n">
+        <v>2338.68</v>
+      </c>
+      <c r="O193" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P193" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q193" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R193" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S193" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T193" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U193" t="inlineStr">
+        <is>
+          <t>% exceedances over 540/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="194">
+      <c r="A194" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B194" t="inlineStr">
+        <is>
+          <t>E coli (Median)</t>
+        </is>
+      </c>
+      <c r="C194" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D194" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E194" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F194" t="n">
+        <v>689</v>
+      </c>
+      <c r="G194" t="n">
+        <v>1264.72904907934</v>
+      </c>
+      <c r="H194" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I194" t="n">
+        <v>3786.75</v>
+      </c>
+      <c r="J194" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K194" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L194" t="n">
+        <v>1055</v>
+      </c>
+      <c r="M194" t="n">
+        <v>1554.42</v>
+      </c>
+      <c r="N194" t="n">
+        <v>2338.68</v>
+      </c>
+      <c r="O194" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P194" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q194" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R194" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S194" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T194" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U194" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="195">
+      <c r="A195" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B195" t="inlineStr">
+        <is>
+          <t>E coli (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C195" t="inlineStr">
+        <is>
+          <t>E</t>
+        </is>
+      </c>
+      <c r="D195" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E195" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F195" t="n">
+        <v>689</v>
+      </c>
+      <c r="G195" t="n">
+        <v>1264.72904907934</v>
+      </c>
+      <c r="H195" t="n">
+        <v>15000</v>
+      </c>
+      <c r="I195" t="n">
+        <v>3786.75</v>
+      </c>
+      <c r="J195" t="n">
+        <v>57.6271186440678</v>
+      </c>
+      <c r="K195" t="n">
+        <v>77.9661016949153</v>
+      </c>
+      <c r="L195" t="n">
+        <v>1055</v>
+      </c>
+      <c r="M195" t="n">
+        <v>1554.42</v>
+      </c>
+      <c r="N195" t="n">
+        <v>2338.68</v>
+      </c>
+      <c r="O195" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P195" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q195" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R195" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S195" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T195" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U195" t="inlineStr">
+        <is>
+          <t>E. coli/100 mL</t>
+        </is>
+      </c>
+    </row>
+    <row r="196">
+      <c r="A196" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B196" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C196" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D196" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E196" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F196" t="n">
+        <v>0.01413</v>
+      </c>
+      <c r="G196" t="n">
+        <v>0.0201544971286331</v>
+      </c>
+      <c r="H196" t="n">
+        <v>0.0892767628165626</v>
+      </c>
+      <c r="I196" t="n">
+        <v>0.05178</v>
+      </c>
+      <c r="J196" t="inlineStr"/>
+      <c r="K196" t="inlineStr"/>
+      <c r="L196" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="M196" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="N196" t="n">
+        <v>0.04938</v>
+      </c>
+      <c r="O196" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P196" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q196" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R196" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S196" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T196" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U196" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="197">
+      <c r="A197" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B197" t="inlineStr">
+        <is>
+          <t>Ammoniacal-N (Median)</t>
+        </is>
+      </c>
+      <c r="C197" t="inlineStr">
+        <is>
+          <t>A</t>
+        </is>
+      </c>
+      <c r="D197" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E197" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F197" t="n">
+        <v>0.01413</v>
+      </c>
+      <c r="G197" t="n">
+        <v>0.0201544971286331</v>
+      </c>
+      <c r="H197" t="n">
+        <v>0.0892767628165626</v>
+      </c>
+      <c r="I197" t="n">
+        <v>0.05178</v>
+      </c>
+      <c r="J197" t="inlineStr"/>
+      <c r="K197" t="inlineStr"/>
+      <c r="L197" t="n">
+        <v>0.00697</v>
+      </c>
+      <c r="M197" t="n">
+        <v>0.0395</v>
+      </c>
+      <c r="N197" t="n">
+        <v>0.04938</v>
+      </c>
+      <c r="O197" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P197" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q197" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R197" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S197" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T197" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U197" t="inlineStr">
+        <is>
+          <t>mg NH4-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="198">
+      <c r="A198" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B198" t="inlineStr">
+        <is>
+          <t>Nitrate-N (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C198" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D198" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E198" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F198" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G198" t="n">
+        <v>1.09117005426541</v>
+      </c>
+      <c r="H198" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I198" t="n">
+        <v>2.6155</v>
+      </c>
+      <c r="J198" t="inlineStr"/>
+      <c r="K198" t="inlineStr"/>
+      <c r="L198" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="M198" t="n">
+        <v>1.8123</v>
+      </c>
+      <c r="N198" t="n">
+        <v>2.3328</v>
+      </c>
+      <c r="O198" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P198" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q198" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R198" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S198" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T198" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U198" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="199">
+      <c r="A199" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B199" t="inlineStr">
+        <is>
+          <t>Nitrate-N (Median)</t>
+        </is>
+      </c>
+      <c r="C199" t="inlineStr">
+        <is>
+          <t>B</t>
+        </is>
+      </c>
+      <c r="D199" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E199" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F199" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="G199" t="n">
+        <v>1.09117005426541</v>
+      </c>
+      <c r="H199" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="I199" t="n">
+        <v>2.6155</v>
+      </c>
+      <c r="J199" t="inlineStr"/>
+      <c r="K199" t="inlineStr"/>
+      <c r="L199" t="n">
+        <v>0.319</v>
+      </c>
+      <c r="M199" t="n">
+        <v>1.8123</v>
+      </c>
+      <c r="N199" t="n">
+        <v>2.3328</v>
+      </c>
+      <c r="O199" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P199" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q199" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R199" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S199" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T199" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U199" t="inlineStr">
+        <is>
+          <t>mg NO3-N/L</t>
+        </is>
+      </c>
+    </row>
+    <row r="200">
+      <c r="A200" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B200" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C200" t="inlineStr"/>
+      <c r="D200" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E200" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F200" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G200" t="n">
+        <v>1.13352542372881</v>
+      </c>
+      <c r="H200" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="I200" t="n">
+        <v>2.68535</v>
+      </c>
+      <c r="J200" t="inlineStr"/>
+      <c r="K200" t="inlineStr"/>
+      <c r="L200" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="M200" t="n">
+        <v>1.84107</v>
+      </c>
+      <c r="N200" t="n">
+        <v>2.41214</v>
+      </c>
+      <c r="O200" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P200" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q200" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R200" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S200" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T200" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U200" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="201">
+      <c r="A201" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B201" t="inlineStr">
+        <is>
+          <t>Soluble Inorganic Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C201" t="inlineStr"/>
+      <c r="D201" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E201" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F201" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="G201" t="n">
+        <v>1.13352542372881</v>
+      </c>
+      <c r="H201" t="n">
+        <v>2.931</v>
+      </c>
+      <c r="I201" t="n">
+        <v>2.68535</v>
+      </c>
+      <c r="J201" t="inlineStr"/>
+      <c r="K201" t="inlineStr"/>
+      <c r="L201" t="n">
+        <v>0.3505</v>
+      </c>
+      <c r="M201" t="n">
+        <v>1.84107</v>
+      </c>
+      <c r="N201" t="n">
+        <v>2.41214</v>
+      </c>
+      <c r="O201" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P201" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q201" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R201" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S201" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T201" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U201" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="202">
+      <c r="A202" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B202" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C202" t="inlineStr"/>
+      <c r="D202" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E202" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F202" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G202" t="n">
+        <v>1.70118644067797</v>
+      </c>
+      <c r="H202" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="I202" t="n">
+        <v>3.1195</v>
+      </c>
+      <c r="J202" t="inlineStr"/>
+      <c r="K202" t="inlineStr"/>
+      <c r="L202" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="M202" t="n">
+        <v>2.454</v>
+      </c>
+      <c r="N202" t="n">
+        <v>2.8734</v>
+      </c>
+      <c r="O202" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P202" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q202" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R202" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S202" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T202" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U202" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="203">
+      <c r="A203" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B203" t="inlineStr">
+        <is>
+          <t>Total Nitrogen (Median)</t>
+        </is>
+      </c>
+      <c r="C203" t="inlineStr"/>
+      <c r="D203" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E203" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F203" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="G203" t="n">
+        <v>1.70118644067797</v>
+      </c>
+      <c r="H203" t="n">
+        <v>9.16</v>
+      </c>
+      <c r="I203" t="n">
+        <v>3.1195</v>
+      </c>
+      <c r="J203" t="inlineStr"/>
+      <c r="K203" t="inlineStr"/>
+      <c r="L203" t="n">
+        <v>1.125</v>
+      </c>
+      <c r="M203" t="n">
+        <v>2.454</v>
+      </c>
+      <c r="N203" t="n">
+        <v>2.8734</v>
+      </c>
+      <c r="O203" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P203" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q203" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R203" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S203" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T203" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U203" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="204">
+      <c r="A204" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B204" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (95th Percentile)</t>
+        </is>
+      </c>
+      <c r="C204" t="inlineStr"/>
+      <c r="D204" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E204" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F204" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G204" t="n">
+        <v>0.15371186440678</v>
+      </c>
+      <c r="H204" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I204" t="n">
+        <v>0.5558</v>
+      </c>
+      <c r="J204" t="inlineStr"/>
+      <c r="K204" t="inlineStr"/>
+      <c r="L204" t="n">
+        <v>0.1015</v>
+      </c>
+      <c r="M204" t="n">
+        <v>0.15341</v>
+      </c>
+      <c r="N204" t="n">
+        <v>0.34988</v>
+      </c>
+      <c r="O204" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P204" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q204" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R204" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S204" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T204" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U204" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
+    <row r="205">
+      <c r="A205" t="inlineStr">
+        <is>
+          <t>Mangarangiora trib at ds Norsewood STP</t>
+        </is>
+      </c>
+      <c r="B205" t="inlineStr">
+        <is>
+          <t>Total Phosphorus (Median)</t>
+        </is>
+      </c>
+      <c r="C205" t="inlineStr"/>
+      <c r="D205" t="inlineStr">
+        <is>
+          <t>2019 - 2023</t>
+        </is>
+      </c>
+      <c r="E205" t="inlineStr">
+        <is>
+          <t>Impact</t>
+        </is>
+      </c>
+      <c r="F205" t="n">
+        <v>0.074</v>
+      </c>
+      <c r="G205" t="n">
+        <v>0.15371186440678</v>
+      </c>
+      <c r="H205" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="I205" t="n">
+        <v>0.5558</v>
+      </c>
+      <c r="J205" t="inlineStr"/>
+      <c r="K205" t="inlineStr"/>
+      <c r="L205" t="n">
+        <v>0.1015</v>
+      </c>
+      <c r="M205" t="n">
+        <v>0.15341</v>
+      </c>
+      <c r="N205" t="n">
+        <v>0.34988</v>
+      </c>
+      <c r="O205" t="n">
+        <v>1874806.67707</v>
+      </c>
+      <c r="P205" t="n">
+        <v>5557913.63477</v>
+      </c>
+      <c r="Q205" t="inlineStr">
+        <is>
+          <t>Tararua District</t>
+        </is>
+      </c>
+      <c r="R205" t="inlineStr">
+        <is>
+          <t>Manawatū</t>
+        </is>
+      </c>
+      <c r="S205" t="inlineStr">
+        <is>
+          <t>Upper Manawatu</t>
+        </is>
+      </c>
+      <c r="T205" t="inlineStr">
+        <is>
+          <t>Mana_1a</t>
+        </is>
+      </c>
+      <c r="U205" t="inlineStr">
+        <is>
+          <t>g/m3</t>
+        </is>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/state_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
+++ b/state_results/Rivers/MangarangioratribatdsNorsewoodSTP_9ad4a54756.xlsx
@@ -570,7 +570,7 @@
         <v>1.5</v>
       </c>
       <c r="G2" t="n">
-        <v>1.57309106019467</v>
+        <v>1.57235586382984</v>
       </c>
       <c r="H2" t="n">
         <v>3.1</v>
@@ -1939,7 +1939,7 @@
         <v>1.575</v>
       </c>
       <c r="G19" t="n">
-        <v>1.68013651474013</v>
+        <v>1.6794013183753</v>
       </c>
       <c r="H19" t="n">
         <v>3.1</v>
@@ -3308,7 +3308,7 @@
         <v>1.5</v>
       </c>
       <c r="G36" t="n">
-        <v>1.54942872972775</v>
+        <v>1.54865852401222</v>
       </c>
       <c r="H36" t="n">
         <v>3.1</v>
@@ -4677,7 +4677,7 @@
         <v>1.5</v>
       </c>
       <c r="G53" t="n">
-        <v>1.42269782903641</v>
+        <v>1.4219455350817</v>
       </c>
       <c r="H53" t="n">
         <v>2.5</v>
@@ -11765,13 +11765,13 @@
         <v>615</v>
       </c>
       <c r="G141" t="n">
-        <v>1869.6554119945</v>
+        <v>1932.17062385457</v>
       </c>
       <c r="H141" t="n">
         <v>24000</v>
       </c>
       <c r="I141" t="n">
-        <v>13104.40556</v>
+        <v>14554.75847</v>
       </c>
       <c r="J141" t="n">
         <v>55.1724137931034</v>
@@ -11850,13 +11850,13 @@
         <v>615</v>
       </c>
       <c r="G142" t="n">
-        <v>1869.6554119945</v>
+        <v>1932.17062385457</v>
       </c>
       <c r="H142" t="n">
         <v>24000</v>
       </c>
       <c r="I142" t="n">
-        <v>13104.40556</v>
+        <v>14554.75847</v>
       </c>
       <c r="J142" t="n">
         <v>55.1724137931034</v>
@@ -11935,13 +11935,13 @@
         <v>615</v>
       </c>
       <c r="G143" t="n">
-        <v>1869.6554119945</v>
+        <v>1932.17062385457</v>
       </c>
       <c r="H143" t="n">
         <v>24000</v>
       </c>
       <c r="I143" t="n">
-        <v>13104.40556</v>
+        <v>14554.75847</v>
       </c>
       <c r="J143" t="n">
         <v>55.1724137931034</v>
@@ -12020,13 +12020,13 @@
         <v>615</v>
       </c>
       <c r="G144" t="n">
-        <v>1869.6554119945</v>
+        <v>1932.17062385457</v>
       </c>
       <c r="H144" t="n">
         <v>24000</v>
       </c>
       <c r="I144" t="n">
-        <v>13104.40556</v>
+        <v>14554.75847</v>
       </c>
       <c r="J144" t="n">
         <v>55.1724137931034</v>
@@ -13134,7 +13134,7 @@
         <v>590</v>
       </c>
       <c r="G158" t="n">
-        <v>2052.55955755392</v>
+        <v>2114.01518955195</v>
       </c>
       <c r="H158" t="n">
         <v>24000</v>
@@ -13155,7 +13155,7 @@
         <v>1494</v>
       </c>
       <c r="N158" t="n">
-        <v>8729.590840000001</v>
+        <v>11557.77902</v>
       </c>
       <c r="O158" t="n">
         <v>1874806.67707</v>
@@ -13219,7 +13219,7 @@
         <v>590</v>
       </c>
       <c r="G159" t="n">
-        <v>2052.55955755392</v>
+        <v>2114.01518955195</v>
       </c>
       <c r="H159" t="n">
         <v>24000</v>
@@ -13240,7 +13240,7 @@
         <v>1494</v>
       </c>
       <c r="N159" t="n">
-        <v>8729.590840000001</v>
+        <v>11557.77902</v>
       </c>
       <c r="O159" t="n">
         <v>1874806.67707</v>
@@ -13304,7 +13304,7 @@
         <v>590</v>
       </c>
       <c r="G160" t="n">
-        <v>2052.55955755392</v>
+        <v>2114.01518955195</v>
       </c>
       <c r="H160" t="n">
         <v>24000</v>
@@ -13325,7 +13325,7 @@
         <v>1494</v>
       </c>
       <c r="N160" t="n">
-        <v>8729.590840000001</v>
+        <v>11557.77902</v>
       </c>
       <c r="O160" t="n">
         <v>1874806.67707</v>
@@ -13389,7 +13389,7 @@
         <v>590</v>
       </c>
       <c r="G161" t="n">
-        <v>2052.55955755392</v>
+        <v>2114.01518955195</v>
       </c>
       <c r="H161" t="n">
         <v>24000</v>
@@ -13410,7 +13410,7 @@
         <v>1494</v>
       </c>
       <c r="N161" t="n">
-        <v>8729.590840000001</v>
+        <v>11557.77902</v>
       </c>
       <c r="O161" t="n">
         <v>1874806.67707</v>
@@ -14503,13 +14503,13 @@
         <v>740</v>
       </c>
       <c r="G175" t="n">
-        <v>1909.81379484205</v>
+        <v>1971.26942684008</v>
       </c>
       <c r="H175" t="n">
         <v>24000</v>
       </c>
       <c r="I175" t="n">
-        <v>12867.45625</v>
+        <v>14499.10328</v>
       </c>
       <c r="J175" t="n">
         <v>61.0169491525424</v>
@@ -14588,13 +14588,13 @@
         <v>740</v>
       </c>
       <c r="G176" t="n">
-        <v>1909.81379484205</v>
+        <v>1971.26942684008</v>
       </c>
       <c r="H176" t="n">
         <v>24000</v>
       </c>
       <c r="I176" t="n">
-        <v>12867.45625</v>
+        <v>14499.10328</v>
       </c>
       <c r="J176" t="n">
         <v>61.0169491525424</v>
@@ -14673,13 +14673,13 @@
         <v>740</v>
       </c>
       <c r="G177" t="n">
-        <v>1909.81379484205</v>
+        <v>1971.26942684008</v>
       </c>
       <c r="H177" t="n">
         <v>24000</v>
       </c>
       <c r="I177" t="n">
-        <v>12867.45625</v>
+        <v>14499.10328</v>
       </c>
       <c r="J177" t="n">
         <v>61.0169491525424</v>
@@ -14758,13 +14758,13 @@
         <v>740</v>
       </c>
       <c r="G178" t="n">
-        <v>1909.81379484205</v>
+        <v>1971.26942684008</v>
       </c>
       <c r="H178" t="n">
         <v>24000</v>
       </c>
       <c r="I178" t="n">
-        <v>12867.45625</v>
+        <v>14499.10328</v>
       </c>
       <c r="J178" t="n">
         <v>61.0169491525424</v>
@@ -15872,7 +15872,7 @@
         <v>689</v>
       </c>
       <c r="G192" t="n">
-        <v>1264.72904907934</v>
+        <v>1326.18468107737</v>
       </c>
       <c r="H192" t="n">
         <v>15000</v>
@@ -15957,7 +15957,7 @@
         <v>689</v>
       </c>
       <c r="G193" t="n">
-        <v>1264.72904907934</v>
+        <v>1326.18468107737</v>
       </c>
       <c r="H193" t="n">
         <v>15000</v>
@@ -16042,7 +16042,7 @@
         <v>689</v>
       </c>
       <c r="G194" t="n">
-        <v>1264.72904907934</v>
+        <v>1326.18468107737</v>
       </c>
       <c r="H194" t="n">
         <v>15000</v>
@@ -16127,7 +16127,7 @@
         <v>689</v>
       </c>
       <c r="G195" t="n">
-        <v>1264.72904907934</v>
+        <v>1326.18468107737</v>
       </c>
       <c r="H195" t="n">
         <v>15000</v>
